--- a/natmiOut/OldD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Itgb2</t>
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="H2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="I2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="J2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65881413873825</v>
+        <v>3.687165</v>
       </c>
       <c r="N2">
-        <v>2.65881413873825</v>
+        <v>11.061495</v>
       </c>
       <c r="O2">
-        <v>0.02281023825497863</v>
+        <v>0.02835531825299169</v>
       </c>
       <c r="P2">
-        <v>0.02281023825497863</v>
+        <v>0.03214637466498473</v>
       </c>
       <c r="Q2">
-        <v>234.7263851485031</v>
+        <v>0.5306518705800001</v>
       </c>
       <c r="R2">
-        <v>234.7263851485031</v>
+        <v>4.77586683522</v>
       </c>
       <c r="S2">
-        <v>0.009365993354435871</v>
+        <v>1.708075503915505E-05</v>
       </c>
       <c r="T2">
-        <v>0.009365993354435871</v>
+        <v>1.938094681084362E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="H3">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="I3">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="J3">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.726998887748</v>
+        <v>78.44595600000001</v>
       </c>
       <c r="N3">
-        <v>72.726998887748</v>
+        <v>235.337868</v>
       </c>
       <c r="O3">
-        <v>0.6239323569214748</v>
+        <v>0.6032710898590605</v>
       </c>
       <c r="P3">
-        <v>0.6239323569214748</v>
+        <v>0.6839273784951058</v>
       </c>
       <c r="Q3">
-        <v>6420.511047726479</v>
+        <v>11.289837392912</v>
       </c>
       <c r="R3">
-        <v>6420.511047726479</v>
+        <v>101.608536536208</v>
       </c>
       <c r="S3">
-        <v>0.2561896216611666</v>
+        <v>0.0003634001077381499</v>
       </c>
       <c r="T3">
-        <v>0.2561896216611666</v>
+        <v>0.0004123376363037127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="H4">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="I4">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="J4">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>41.1765003091901</v>
+        <v>1.681161666666666</v>
       </c>
       <c r="N4">
-        <v>41.1765003091901</v>
+        <v>5.043485</v>
       </c>
       <c r="O4">
-        <v>0.3532574048235465</v>
+        <v>0.01292859801312479</v>
       </c>
       <c r="P4">
-        <v>0.3532574048235465</v>
+        <v>0.01465712893485288</v>
       </c>
       <c r="Q4">
-        <v>3635.158595639587</v>
+        <v>0.2419505455177778</v>
       </c>
       <c r="R4">
-        <v>3635.158595639587</v>
+        <v>2.17755490966</v>
       </c>
       <c r="S4">
-        <v>0.1450491866414615</v>
+        <v>7.787964631241338E-06</v>
       </c>
       <c r="T4">
-        <v>0.1450491866414615</v>
+        <v>8.836736311528199E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>126.723307834671</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="H5">
-        <v>126.723307834671</v>
+        <v>0.431756</v>
       </c>
       <c r="I5">
-        <v>0.589395198342936</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="J5">
-        <v>0.589395198342936</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.65881413873825</v>
+        <v>0.214788</v>
       </c>
       <c r="N5">
-        <v>2.65881413873825</v>
+        <v>0.644364</v>
       </c>
       <c r="O5">
-        <v>0.02281023825497863</v>
+        <v>0.001651779103165597</v>
       </c>
       <c r="P5">
-        <v>0.02281023825497863</v>
+        <v>0.001872619077676952</v>
       </c>
       <c r="Q5">
-        <v>336.9337225785029</v>
+        <v>0.030912002576</v>
       </c>
       <c r="R5">
-        <v>336.9337225785029</v>
+        <v>0.278208023184</v>
       </c>
       <c r="S5">
-        <v>0.01344424490054275</v>
+        <v>9.950032649339087E-07</v>
       </c>
       <c r="T5">
-        <v>0.01344424490054275</v>
+        <v>1.128996072485902E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>126.723307834671</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="H6">
-        <v>126.723307834671</v>
+        <v>0.431756</v>
       </c>
       <c r="I6">
-        <v>0.589395198342936</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="J6">
-        <v>0.589395198342936</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.726998887748</v>
+        <v>46.005266</v>
       </c>
       <c r="N6">
-        <v>72.726998887748</v>
+        <v>92.010532</v>
       </c>
       <c r="O6">
-        <v>0.6239323569214748</v>
+        <v>0.3537932147716573</v>
       </c>
       <c r="P6">
-        <v>0.6239323569214748</v>
+        <v>0.2673964988273796</v>
       </c>
       <c r="Q6">
-        <v>9216.205867943865</v>
+        <v>6.621016542365333</v>
       </c>
       <c r="R6">
-        <v>9216.205867943865</v>
+        <v>39.72609925419199</v>
       </c>
       <c r="S6">
-        <v>0.3677427352603082</v>
+        <v>0.0002131189352950488</v>
       </c>
       <c r="T6">
-        <v>0.3677427352603082</v>
+        <v>0.0001612124967492572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.340352</v>
+      </c>
+      <c r="I7">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="J7">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.687165</v>
+      </c>
+      <c r="N7">
+        <v>11.061495</v>
+      </c>
+      <c r="O7">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P7">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q7">
+        <v>0.41831132736</v>
+      </c>
+      <c r="R7">
+        <v>3.76480194624</v>
+      </c>
+      <c r="S7">
+        <v>1.34647095560606E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.527794404470175E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.340352</v>
+      </c>
+      <c r="I8">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="J8">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N8">
+        <v>235.337868</v>
+      </c>
+      <c r="O8">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P8">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q8">
+        <v>8.899746005504001</v>
+      </c>
+      <c r="R8">
+        <v>80.09771404953601</v>
+      </c>
+      <c r="S8">
+        <v>0.0002864672487907402</v>
+      </c>
+      <c r="T8">
+        <v>0.0003250445603332466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.340352</v>
+      </c>
+      <c r="I9">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="J9">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N9">
+        <v>5.043485</v>
+      </c>
+      <c r="O9">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P9">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q9">
+        <v>0.1907289118577777</v>
+      </c>
+      <c r="R9">
+        <v>1.71656020672</v>
+      </c>
+      <c r="S9">
+        <v>6.139229884870741E-06</v>
+      </c>
+      <c r="T9">
+        <v>6.965973552426012E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="H7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="I7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="J7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>41.1765003091901</v>
-      </c>
-      <c r="N7">
-        <v>41.1765003091901</v>
-      </c>
-      <c r="O7">
-        <v>0.3532574048235465</v>
-      </c>
-      <c r="P7">
-        <v>0.3532574048235465</v>
-      </c>
-      <c r="Q7">
-        <v>5218.022324235922</v>
-      </c>
-      <c r="R7">
-        <v>5218.022324235922</v>
-      </c>
-      <c r="S7">
-        <v>0.208208218182085</v>
-      </c>
-      <c r="T7">
-        <v>0.208208218182085</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.340352</v>
+      </c>
+      <c r="I10">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="J10">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.214788</v>
+      </c>
+      <c r="N10">
+        <v>0.644364</v>
+      </c>
+      <c r="O10">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P10">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q10">
+        <v>0.024367841792</v>
+      </c>
+      <c r="R10">
+        <v>0.219310576128</v>
+      </c>
+      <c r="S10">
+        <v>7.843581819981325E-07</v>
+      </c>
+      <c r="T10">
+        <v>8.899843227719396E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.340352</v>
+      </c>
+      <c r="I11">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="J11">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.005266</v>
+      </c>
+      <c r="N11">
+        <v>92.010532</v>
+      </c>
+      <c r="O11">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P11">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q11">
+        <v>5.219328097877333</v>
+      </c>
+      <c r="R11">
+        <v>31.315968587264</v>
+      </c>
+      <c r="S11">
+        <v>0.0001680010373116771</v>
+      </c>
+      <c r="T11">
+        <v>0.0001270833426602136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="H12">
+        <v>297.946166</v>
+      </c>
+      <c r="I12">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="J12">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.687165</v>
+      </c>
+      <c r="N12">
+        <v>11.061495</v>
+      </c>
+      <c r="O12">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P12">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q12">
+        <v>366.19222505313</v>
+      </c>
+      <c r="R12">
+        <v>3295.73002547817</v>
+      </c>
+      <c r="S12">
+        <v>0.01178708686457496</v>
+      </c>
+      <c r="T12">
+        <v>0.01337440312523922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="H13">
+        <v>297.946166</v>
+      </c>
+      <c r="I13">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="J13">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N13">
+        <v>235.337868</v>
+      </c>
+      <c r="O13">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P13">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q13">
+        <v>7790.890609468232</v>
+      </c>
+      <c r="R13">
+        <v>70118.0154852141</v>
+      </c>
+      <c r="S13">
+        <v>0.2507751341604256</v>
+      </c>
+      <c r="T13">
+        <v>0.2845459422317087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="H14">
+        <v>297.946166</v>
+      </c>
+      <c r="I14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="J14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N14">
+        <v>5.043485</v>
+      </c>
+      <c r="O14">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P14">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q14">
+        <v>166.9652243365011</v>
+      </c>
+      <c r="R14">
+        <v>1502.68701902851</v>
+      </c>
+      <c r="S14">
+        <v>0.005374318371538463</v>
+      </c>
+      <c r="T14">
+        <v>0.006098054697497681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="H15">
+        <v>297.946166</v>
+      </c>
+      <c r="I15">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="J15">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214788</v>
+      </c>
+      <c r="N15">
+        <v>0.644364</v>
+      </c>
+      <c r="O15">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P15">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q15">
+        <v>21.331753700936</v>
+      </c>
+      <c r="R15">
+        <v>191.985783308424</v>
+      </c>
+      <c r="S15">
+        <v>0.0006866318196957085</v>
+      </c>
+      <c r="T15">
+        <v>0.0007790975718374092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="H16">
+        <v>297.946166</v>
+      </c>
+      <c r="I16">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="J16">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>46.005266</v>
+      </c>
+      <c r="N16">
+        <v>92.010532</v>
+      </c>
+      <c r="O16">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P16">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q16">
+        <v>4569.030873503385</v>
+      </c>
+      <c r="R16">
+        <v>27414.18524102031</v>
+      </c>
+      <c r="S16">
+        <v>0.1470691077209393</v>
+      </c>
+      <c r="T16">
+        <v>0.1112495143500696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="H17">
+        <v>416.195305</v>
+      </c>
+      <c r="I17">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="J17">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.687165</v>
+      </c>
+      <c r="N17">
+        <v>11.061495</v>
+      </c>
+      <c r="O17">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P17">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q17">
+        <v>511.526920586775</v>
+      </c>
+      <c r="R17">
+        <v>4603.742285280975</v>
+      </c>
+      <c r="S17">
+        <v>0.0164651563687625</v>
+      </c>
+      <c r="T17">
+        <v>0.01868244811682486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="H18">
+        <v>416.195305</v>
+      </c>
+      <c r="I18">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="J18">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N18">
+        <v>235.337868</v>
+      </c>
+      <c r="O18">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P18">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q18">
+        <v>10882.94619447886</v>
+      </c>
+      <c r="R18">
+        <v>97946.51575030974</v>
+      </c>
+      <c r="S18">
+        <v>0.3503029921462867</v>
+      </c>
+      <c r="T18">
+        <v>0.3974767885203744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="H19">
+        <v>416.195305</v>
+      </c>
+      <c r="I19">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="J19">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N19">
+        <v>5.043485</v>
+      </c>
+      <c r="O19">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P19">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q19">
+        <v>233.2305308708805</v>
+      </c>
+      <c r="R19">
+        <v>2099.074777837925</v>
+      </c>
+      <c r="S19">
+        <v>0.007507282620342743</v>
+      </c>
+      <c r="T19">
+        <v>0.008518256062176445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="H20">
+        <v>416.195305</v>
+      </c>
+      <c r="I20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="J20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214788</v>
+      </c>
+      <c r="N20">
+        <v>0.644364</v>
+      </c>
+      <c r="O20">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P20">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q20">
+        <v>29.79791905678</v>
+      </c>
+      <c r="R20">
+        <v>268.18127151102</v>
+      </c>
+      <c r="S20">
+        <v>0.0009591428661678445</v>
+      </c>
+      <c r="T20">
+        <v>0.001088306508148287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="H21">
+        <v>416.195305</v>
+      </c>
+      <c r="I21">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="J21">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.005266</v>
+      </c>
+      <c r="N21">
+        <v>92.010532</v>
+      </c>
+      <c r="O21">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P21">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q21">
+        <v>6382.391904825376</v>
+      </c>
+      <c r="R21">
+        <v>38294.35142895226</v>
+      </c>
+      <c r="S21">
+        <v>0.2054380258210612</v>
+      </c>
+      <c r="T21">
+        <v>0.1554023204179411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.222236</v>
+      </c>
+      <c r="I22">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="J22">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.687165</v>
+      </c>
+      <c r="N22">
+        <v>11.061495</v>
+      </c>
+      <c r="O22">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P22">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q22">
+        <v>2.25329290047</v>
+      </c>
+      <c r="R22">
+        <v>13.51975740282</v>
+      </c>
+      <c r="S22">
+        <v>7.252955505900341E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.486453206509756E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.222236</v>
+      </c>
+      <c r="I23">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="J23">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N23">
+        <v>235.337868</v>
+      </c>
+      <c r="O23">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P23">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q23">
+        <v>47.93973573880801</v>
+      </c>
+      <c r="R23">
+        <v>287.638414432848</v>
+      </c>
+      <c r="S23">
+        <v>0.001543096195819324</v>
+      </c>
+      <c r="T23">
+        <v>0.001167265546385701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.222236</v>
+      </c>
+      <c r="I24">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="J24">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N24">
+        <v>5.043485</v>
+      </c>
+      <c r="O24">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P24">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q24">
+        <v>1.02738815541</v>
+      </c>
+      <c r="R24">
+        <v>6.16432893246</v>
+      </c>
+      <c r="S24">
+        <v>3.306982672746837E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.501546531480044E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.222236</v>
+      </c>
+      <c r="I25">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="J25">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214788</v>
+      </c>
+      <c r="N25">
+        <v>0.644364</v>
+      </c>
+      <c r="O25">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P25">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q25">
+        <v>0.131260812984</v>
+      </c>
+      <c r="R25">
+        <v>0.7875648779040001</v>
+      </c>
+      <c r="S25">
+        <v>4.225055855111779E-06</v>
+      </c>
+      <c r="T25">
+        <v>3.196017295997921E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.222236</v>
+      </c>
+      <c r="I26">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="J26">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.005266</v>
+      </c>
+      <c r="N26">
+        <v>92.010532</v>
+      </c>
+      <c r="O26">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P26">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q26">
+        <v>28.114646147388</v>
+      </c>
+      <c r="R26">
+        <v>112.458584589552</v>
+      </c>
+      <c r="S26">
+        <v>0.0009049612570500907</v>
+      </c>
+      <c r="T26">
+        <v>0.0004563682199594796</v>
       </c>
     </row>
   </sheetData>
